--- a/Stuetzen_Vorlage.xlsx
+++ b/Stuetzen_Vorlage.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorinleanderilli/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FA74A4-347E-B14B-A247-44ADBC230AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407FC6A8-42F4-3C49-8EBD-7A5DDD946165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5140" yWindow="7440" windowWidth="25680" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4220" yWindow="5400" windowWidth="25680" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -42,12 +55,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Datum:</t>
-  </si>
-  <si>
-    <t>TT.MM.JJJJ</t>
   </si>
   <si>
     <t>Projekt:</t>
@@ -75,9 +85,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -119,16 +136,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,16 +521,16 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.1640625" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -547,33 +567,34 @@
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>1</v>
+      <c r="B6" s="4">
+        <f ca="1">TODAY()</f>
+        <v>45632</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
